--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1209.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1209.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7014600740711862</v>
+        <v>1.170203924179077</v>
       </c>
       <c r="B1">
-        <v>1.308155233782219</v>
+        <v>2.22244930267334</v>
       </c>
       <c r="C1">
-        <v>4.61244249867682</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>3.155228483574222</v>
+        <v>2.33198070526123</v>
       </c>
       <c r="E1">
-        <v>1.576547051617178</v>
+        <v>1.228568315505981</v>
       </c>
     </row>
   </sheetData>
